--- a/medicine/Enfance/Spooksville/Spooksville.xlsx
+++ b/medicine/Enfance/Spooksville/Spooksville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Spooksville (la ville de la peur) est une série de livres américaine à caractère fantastique pour la jeunesse, écrite par Christopher Pike de 1995 à 1998. La collection comporte 24 romans publiés aux États-Unis chez Grosset &amp; Dunlap. En France, la collection a été publiée chez Pocket.
-Une adaptation télévisée sous forme de 22 épisodes a été diffusée en 2013 sur Hub Network[1]. En France, la série a été diffusée sur Teletoon+ en 2014.
+Une adaptation télévisée sous forme de 22 épisodes a été diffusée en 2013 sur Hub Network. En France, la série a été diffusée sur Teletoon+ en 2014.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsqu'il arrive à Springville, petite bourgade américaine au bord du Pacifique, Adam Freeman ignore que l'endroit attire les phénomènes paranormaux comme un aimant (fantômes, sorcières, dragons...). Ses nouveaux amis, Sally Wilcox et Tic-Tac (plus tard Cindy Makey et Brice Poole), vont se charger de lui faire découvrir la face cachée du lieu...
 </t>
@@ -544,7 +558,9 @@
           <t>Personnages principaux et récurrents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Adam Freeman (Keean Johnson) :
 Garçon brun, complexé par sa taille (car il est assez petit pour son âge) mais mignon, il emménage à Springville avec sa famille au début du premier volume. Courageux, modeste, réfléchi et galant, il devient vite le ciment du groupe et son chef. Véritable chevalier servant, il est toujours prêt à sauver autrui et calme les conflits qui peuvent éclater dans la bande, à part lorsqu'il s'agit de Brice.
@@ -586,7 +602,9 @@
           <t>Volumes publiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Ville de la peur (The Secret Path)
 Le Fantôme de l'océan (The Howling Ghost)
